--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_17-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_17-59.xlsx
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>DIAX 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
     <t>DICLAC 75 MG/3ML 6AMPS.</t>
@@ -1426,17 +1429,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1444,7 +1447,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1452,17 +1455,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1470,7 +1473,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1478,17 +1481,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1496,7 +1499,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1504,13 +1507,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1536,7 +1539,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1556,17 +1559,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1574,7 +1577,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1582,17 +1585,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1608,13 +1611,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1634,13 +1637,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1660,13 +1663,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>169.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1686,13 +1689,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>54</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1712,13 +1715,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1730,7 +1733,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1738,17 +1741,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1756,7 +1759,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1764,13 +1767,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>9</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1790,17 +1793,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>86.5</v>
+        <v>9</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1816,17 +1819,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>58</v>
+        <v>86.5</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1842,17 +1845,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1860,7 +1863,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1868,17 +1871,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1894,13 +1897,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1926,11 +1929,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1946,17 +1949,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1964,7 +1967,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1972,17 +1975,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1998,17 +2001,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2024,17 +2027,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2050,17 +2053,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2076,17 +2079,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>4</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2102,17 +2105,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2120,7 +2123,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2128,17 +2131,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2154,17 +2157,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2172,7 +2175,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2180,17 +2183,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2212,7 +2215,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2232,7 +2235,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2258,13 +2261,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2284,13 +2287,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2310,13 +2313,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2336,13 +2339,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2362,17 +2365,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>134.40000000000001</v>
+        <v>24</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2388,17 +2391,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2414,13 +2417,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2440,13 +2443,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2466,7 +2469,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -2476,7 +2479,7 @@
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2492,17 +2495,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2518,17 +2521,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2544,17 +2547,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2570,17 +2573,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2596,17 +2599,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2622,17 +2625,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2648,17 +2651,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2674,13 +2677,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2700,17 +2703,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2732,11 +2735,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2752,17 +2755,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>78.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2770,7 +2773,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2778,17 +2781,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>20</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2796,7 +2799,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2804,13 +2807,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2830,17 +2833,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2848,7 +2851,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2856,17 +2859,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2882,17 +2885,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2900,7 +2903,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2908,17 +2911,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2926,7 +2929,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2934,13 +2937,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2966,11 +2969,11 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2986,17 +2989,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3004,7 +3007,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3012,17 +3015,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3030,7 +3033,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3038,13 +3041,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3064,51 +3067,77 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="K86" s="11">
-        <v>4958.9399999999996</v>
-      </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="12">
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
+        <v>117</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
         <v>118</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c t="s" r="F87" s="13">
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>30</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="26.25" customHeight="1">
+      <c r="K87" s="11">
+        <v>4990.9399999999996</v>
+      </c>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="12">
         <v>119</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-      <c t="s" r="I87" s="15">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c t="s" r="F88" s="13">
         <v>120</v>
       </c>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c t="s" r="I88" s="15">
+        <v>121</v>
+      </c>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="260">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3362,10 +3391,13 @@
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:N88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
